--- a/WebApp/TemplateFile/Export/350Template.xlsx
+++ b/WebApp/TemplateFile/Export/350Template.xlsx
@@ -16,7 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+  <si>
+    <t>订单类型</t>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
   <si>
     <t>店铺编号</t>
   </si>
@@ -24,6 +30,9 @@
     <t>店铺名称</t>
   </si>
   <si>
+    <t>区域</t>
+  </si>
+  <si>
     <t>省份</t>
   </si>
   <si>
@@ -33,7 +42,10 @@
     <t>城市级别</t>
   </si>
   <si>
-    <t>店铺类型</t>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Format</t>
   </si>
   <si>
     <t>店铺地址</t>
@@ -90,6 +102,9 @@
     <t>面积</t>
   </si>
   <si>
+    <t>订单费用</t>
+  </si>
+  <si>
     <t>其他备注</t>
   </si>
   <si>
@@ -97,9 +112,6 @@
   </si>
   <si>
     <t>补单项目</t>
-  </si>
-  <si>
-    <t>当前店铺类型</t>
   </si>
 </sst>
 </file>
@@ -107,13 +119,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d/mmm/yyyy;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -121,6 +133,107 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -132,16 +245,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,6 +269,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -162,106 +285,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -270,26 +302,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,49 +312,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,25 +456,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,103 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,16 +516,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,21 +545,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -562,6 +559,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,10 +611,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,144 +623,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1212,38 +1224,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB1"/>
+  <dimension ref="A1:AF1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="5.625" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="6.5" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
-    <col min="10" max="10" width="11.875" customWidth="1"/>
-    <col min="11" max="11" width="14.625" customWidth="1"/>
-    <col min="12" max="12" width="18.125" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="7.875" customWidth="1"/>
-    <col min="15" max="16" width="9.5" customWidth="1"/>
-    <col min="17" max="17" width="16.375" customWidth="1"/>
-    <col min="18" max="19" width="8.5" customWidth="1"/>
-    <col min="20" max="20" width="16.25" customWidth="1"/>
-    <col min="21" max="21" width="18.625" customWidth="1"/>
-    <col min="25" max="25" width="10.875" customWidth="1"/>
-    <col min="27" max="27" width="15.375" customWidth="1"/>
-    <col min="28" max="28" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="6.5" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="14.625" customWidth="1"/>
+    <col min="16" max="16" width="18.125" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="7.875" customWidth="1"/>
+    <col min="19" max="20" width="9.5" customWidth="1"/>
+    <col min="21" max="21" width="16.375" customWidth="1"/>
+    <col min="22" max="23" width="8.5" customWidth="1"/>
+    <col min="24" max="24" width="16.25" customWidth="1"/>
+    <col min="25" max="25" width="18.625" customWidth="1"/>
+    <col min="29" max="29" width="10" customWidth="1"/>
+    <col min="30" max="30" width="10.875" customWidth="1"/>
+    <col min="32" max="32" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1327,6 +1342,18 @@
       </c>
       <c r="AB1" t="s">
         <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
